--- a/NSAS/stf/NSAS_stf_2020_tab.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\results\stf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6AB1B463-1EF1-4156-A9BD-26AD0928F129}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91F7F933-B200-480E-B561-D69CBDA40A0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -647,15 +647,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1014,7 +1016,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1024,7 @@
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1086,47 +1088,47 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.196872216327869</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.9674353129063302E-3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7.6751214823222796E-4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.198219627163815</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.1396061256471501E-2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>391200.47793567099</v>
-      </c>
-      <c r="I2" s="4">
-        <v>5614.9800130171297</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3330.3937383375501</v>
-      </c>
-      <c r="K2" s="4">
-        <v>241.132954840797</v>
+      <c r="B2" s="8">
+        <v>0.19685269339771999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.96762585371462E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>7.6751678634720902E-4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.19820017910124099</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2.1396350317012699E-2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>391200.47530099499</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5614.9800130220401</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3330.3937383551402</v>
+      </c>
+      <c r="K2" s="9">
+        <v>241.13295484111001</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.98464186647</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1288877.0345384199</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>400386.98200721329</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1287790.1214604401</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1140,565 +1142,565 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.216325017801619</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.7871964000208001E-2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.21643005661762499</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.8738899038611399E-2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>354086.21211936203</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5751.7135261173398</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B3" s="8">
+        <v>0.21616556743895399</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.78720721528326E-2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.216270601969694</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.8738438606159199E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>353892.66052822099</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5751.7350864995497</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
         <v>0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L23" si="0">SUM(H3:K3)</f>
-        <v>359837.92564547935</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1190399.41122308</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1187591.36299551</v>
+        <v>359644.39561472053</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1189520.59338834</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1186669.8706576901</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>-7.6405755302023275</v>
+        <v>-7.6308651879279772</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-8.0314663281381087</v>
+        <v>-8.0817384240792425</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-16.522930426370369</v>
+        <v>-16.567826527339331</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.216145764211673</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.9117289133332603E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.21643443240523</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4.9983506017612998E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>353817.26844644698</v>
-      </c>
-      <c r="I4" s="4">
-        <v>15556.950772272499</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="B4" s="8">
+        <v>0.21598755650012</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4.9117865334131199E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.21627621455600199</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4.9983518555245E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>353625.37680122902</v>
+      </c>
+      <c r="I4" s="9">
+        <v>15557.097208830301</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>369374.21921871946</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1190399.8156393501</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1184768.52256763</v>
+        <v>369182.47401005932</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1189527.82205349</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1183909.7619481499</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O23" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>-7.6405441527893352</v>
+        <v>-7.6303038646945138</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-8.1013203760838799</v>
+        <v>-8.15116132619867</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-14.310651549262181</v>
+        <v>-14.355133597937344</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.21632497736267101</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.7871963998847499E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.216430021059071</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.8738906631995001E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>354086.15574900003</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5751.7135127741003</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="B5" s="8">
+        <v>0.21616552710214301</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.7872072149498E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.216270566513239</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.8738446198178101E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>353892.60428278398</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5751.7350725244996</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>359837.86926177412</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1190399.4431845399</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1187591.40644058</v>
+        <v>359644.3393553085</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1189520.62527896</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1186669.91398722</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6405730504110796</v>
+        <v>-7.6308627115446379</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-8.031480969486342</v>
+        <v>-8.0817530329800977</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-16.522943506554945</v>
+        <v>-16.567839578689721</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.216145723891148</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.9117281387116303E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.216434396931006</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4.9983505884772503E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>353817.212233903</v>
-      </c>
-      <c r="I6" s="4">
-        <v>15556.9483446789</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="B6" s="8">
+        <v>0.21598751620333201</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4.91178575868704E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.21627617910548499</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.9983518421656499E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>353625.32060530502</v>
+      </c>
+      <c r="I6" s="9">
+        <v>15557.094780916201</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>369374.16057858191</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1190399.84753384</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1184768.5666493301</v>
+        <v>369182.4153862212</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1189527.8539450001</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1183909.80601485</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6405416781940847</v>
+        <v>-7.6303013882420547</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-8.1013349764412688</v>
+        <v>-8.1511759222392719</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-14.310665152905635</v>
+        <v>-14.355147197799575</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.18643910667452801</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.9833983852838199E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.18667321174886001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.0581132988882301E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>311829.85618844797</v>
-      </c>
-      <c r="I7" s="4">
-        <v>12677.3824345062</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="B7" s="8">
+        <v>0.186303191082522</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.9804881417702602E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.186537114161518</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.05515465568516E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>311657.60460310202</v>
+      </c>
+      <c r="I7" s="9">
+        <v>12668.2811326807</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>324507.23862295417</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1217433.9896664701</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1231684.1438629201</v>
+        <v>324325.88573578274</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1216546.3967055499</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1230793.52795021</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5430458420368565</v>
+        <v>-5.5322465646882772</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.006915132036745</v>
+        <v>-19.051654873898201</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-24.719126570434376</v>
+        <v>-24.761197754433763</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.18643910667452801</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.9833983852838199E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.18667321174886001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.0581132988882301E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>311829.85618844797</v>
-      </c>
-      <c r="I8" s="4">
-        <v>12677.3824345062</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="B8" s="8">
+        <v>0.186303191082522</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.9804881417702602E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.186537114161518</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4.05515465568516E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>311657.60460310202</v>
+      </c>
+      <c r="I8" s="9">
+        <v>12668.2811326807</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>324507.23862295417</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1217433.9896664701</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1231684.1438629201</v>
+        <v>324325.88573578274</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1216546.3967055499</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1230793.52795021</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5430458420368565</v>
+        <v>-5.5322465646882772</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.006915132036745</v>
+        <v>-19.051654873898201</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-24.719126570434376</v>
+        <v>-24.761197754433763</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.18643910667452801</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3.9833983852838199E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.18667321174886001</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4.0581132988882301E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>311829.85618844797</v>
-      </c>
-      <c r="I9" s="4">
-        <v>12677.3824345062</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="B9" s="8">
+        <v>0.186303191082522</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.9804881417702602E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.186537114161518</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.05515465568516E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>311657.60460310202</v>
+      </c>
+      <c r="I9" s="9">
+        <v>12668.2811326807</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>324507.23862295417</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1217433.9896664701</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1231684.1438629201</v>
+        <v>324325.88573578274</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1216546.3967055499</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1230793.52795021</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5430458420368565</v>
+        <v>-5.5322465646882772</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.006915132036745</v>
+        <v>-19.051654873898201</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-24.719126570434376</v>
+        <v>-24.761197754433763</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.19043479099904201</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4.9236838278682603E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.190724156826164</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4.99999999999843E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>317579.78506028099</v>
-      </c>
-      <c r="I10" s="4">
-        <v>15594.9451909913</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="B10" s="8">
+        <v>0.190295954785001</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4.9237332679288301E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.190585309960839</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4.9999999999871703E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>317404.87655120401</v>
+      </c>
+      <c r="I10" s="9">
+        <v>15595.0655283489</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>333174.73025127227</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1213699.1798028599</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1224366.0458871401</v>
+        <v>332999.94207955291</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1212815.6088417</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1223493.78049097</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8328182379697022</v>
+        <v>-5.8219512146679602</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.513458146251249</v>
+        <v>-17.55888798383306</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-22.708396877648166</v>
+        <v>-22.748945144885674</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.259899355637777</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.260004428481936</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.8914061193787898E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>412493.65816959197</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5751.1109208400003</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="B11" s="8">
+        <v>0.25989936068174702</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.26000442923978201</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.89142538710214E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>412524.43839270202</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5751.1299822270803</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>418244.76909043198</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1152527.90615043</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1125890.0735088701</v>
+        <v>418275.56837492908</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1151504.04118896</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1124728.6149228001</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.57890898310715</v>
+        <v>-10.582941894050453</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>7.1389836495844179</v>
+        <v>7.1469783466063106</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-2.9734077486691066</v>
+        <v>-2.9662627708011664</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>1411565.2329983099</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1623713.7564216901</v>
+      <c r="M12" s="9">
+        <v>1410557.7982538801</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1622539.1691432099</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.5189994989574593</v>
+        <v>9.5332053529198735</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1710,630 +1712,630 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.239054868595104</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.23915994139787999</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.8830527453551699E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>385008.04999747302</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5751.4274497340302</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="B13" s="8">
+        <v>0.23903318712885599</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.23913825564546401</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.8830626426338599E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>385008.04999748699</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5751.4468516544102</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
         <v>0</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>390759.47744720703</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1170397.7813919201</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1154599.99320403</v>
+        <v>390759.49684914137</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1169394.0402800899</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1153470.03683232</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.1924403935810943</v>
+        <v>-9.1937404401022338</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
-        <v>1.2986086787592786E-5</v>
+        <v>1.29860904160469E-5</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-9.3495883545274161</v>
+        <v>-9.3495838535659903</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>-0.15</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.19719300848250801</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.197298081201947</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.86627671363736E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>327256.84999999998</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5752.0647833431703</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="B14" s="8">
+        <v>0.197175303770113</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.19728037220339101</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.8662868412368701E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>327256.84999999899</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5752.0841476602</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>0</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>333008.91478334315</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1207664.8415220899</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1216820.6691792801</v>
+        <v>333008.93414765917</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1206661.2292786301</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1215690.0082688101</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.3010039623690082</v>
+        <v>-6.2998535887046874</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>-14.999987013256872</v>
+        <v>-14.999987013257131</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-22.746863610491495</v>
+        <v>-22.746859118256964</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>0.15</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.28358518023374102</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.28369025312483198</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.9008981520264999E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>442759.24937505898</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5750.7519044887404</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="B15" s="8">
+        <v>0.28355920166486598</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.28366427026978303</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.9009077775091299E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>442759.24937632598</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5750.77134692656</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>448510.00127954769</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1132753.2074140899</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1094932.81641163</v>
+        <v>448510.02072325256</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1131749.32786725</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1093803.54797184</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-12.113166961675438</v>
+        <v>-12.116942892544435</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>15.000012824424163</v>
+        <v>15.000012824753247</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>4.0476778930983697</v>
+        <v>4.0476824037499375</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3">
-        <v>0.198117159478544</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.19822223219982699</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.8666470647496301E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>328570.143041706</v>
-      </c>
-      <c r="I16" s="4">
-        <v>5752.0506895397903</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="B16" s="8">
+        <v>0.19809771565728701</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.19820278409240499</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1.8666565254496399E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>328567.79674479301</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5752.0700798752996</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
         <v>0</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>334322.19373124582</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1206821.6372517301</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1215376.6620340501</v>
+        <v>334319.86682466831</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1205819.5287816599</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1214248.59604025</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.366425585050167</v>
+        <v>-6.3652136565405604</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-14.658879025447263</v>
+        <v>-14.6594884405537</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-22.442202344153323</v>
+        <v>-22.442742152017967</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.29990077748494798</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.30000585040831401</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.90743658521033E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>463033.22556123999</v>
-      </c>
-      <c r="I17" s="4">
-        <v>5750.5050078332497</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="B17" s="8">
+        <v>0.29990078283155802</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.30000585146880099</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.9074571559411301E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>463067.10678709397</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5750.5240482240897</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
         <v>0</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>468783.73056907323</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1119450.67142951</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1074573.3527964901</v>
+        <v>468817.63083531806</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1118424.4720590899</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1073410.5521287599</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.145269763425171</v>
+        <v>-13.151649991636695</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>20.265871244555953</v>
+        <v>20.274671380099626</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>8.7508828356647612</v>
+        <v>8.7587471953728375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.33990238360694902</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.34000745660925502</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.9234671248370999E-2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>510861.81034296099</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5749.9010744694197</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="B18" s="8">
+        <v>0.33990238929759597</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.34000745801378102</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.9234889985979099E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>510898.46949956898</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5749.9200938249096</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>516611.71141743043</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1087895.1724829201</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1027715.37197099</v>
+        <v>516648.38959339389</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1086866.83266447</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1026551.6227971</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.593563751213598</v>
+        <v>-15.602176585118523</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>32.688622143685585</v>
+        <v>32.698143804692101</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>19.846266063218383</v>
+        <v>19.854774856840525</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.62542471328373905</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.62552978684226002</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2.0378894545052199E-2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>789683.80210091395</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5745.6464195618701</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="B19" s="8">
+        <v>0.62357226765973595</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.62367733692857596</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2.03717820264635E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>788211.97226398205</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5745.6925828667099</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>795429.44852047577</v>
-      </c>
-      <c r="M19" s="1">
-        <v>899911.742305447</v>
-      </c>
-      <c r="N19" s="1">
-        <v>784319.52013662399</v>
+        <v>793957.66484684881</v>
+      </c>
+      <c r="M19" s="9">
+        <v>899911.87434314797</v>
+      </c>
+      <c r="N19" s="9">
+        <v>784359.20016943198</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.178619201813259</v>
+        <v>-30.119678715768707</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>105.10841387735164</v>
+        <v>104.72612835680872</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>84.527851798691557</v>
+        <v>84.186419783429955</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.822900368727839</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.82300544266430498</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2.1170273075360398E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>935833.88392189203</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5742.7592398566303</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="B20" s="8">
+        <v>0.820620386925208</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.82072545657123597</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2.1161511397347298E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>934361.69810754003</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5742.8110880193199</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
         <v>0</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>941576.64316174865</v>
-      </c>
-      <c r="M20" s="1">
-        <v>799917.64119871799</v>
-      </c>
-      <c r="N20" s="1">
-        <v>674205.97221408295</v>
+        <v>940104.50919555931</v>
+      </c>
+      <c r="M20" s="9">
+        <v>799917.78034611105</v>
+      </c>
+      <c r="N20" s="9">
+        <v>674141.15755477198</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.9368535738408</v>
+        <v>-37.884460595259824</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>143.06868530573183</v>
+        <v>142.68630732544258</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>118.43183652508192</v>
+        <v>118.09032324713367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3">
-        <v>1.9687221632786899E-9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.7872154284830501E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.05074291255233E-4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.78725212757898E-2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3.8049348238193598E-3</v>
-      </c>
-      <c r="I21" s="4">
-        <v>5755.0972026871896</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="B21" s="8">
+        <v>1.9685269339772E-9</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.78722622871611E-2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.05070004927054E-4</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.78726292810002E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3.8048802350321401E-3</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5755.1163995289999</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
         <v>0</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>5755.1010076220136</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1411470.78607841</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1621856.6231869301</v>
+        <v>5755.1202044092352</v>
+      </c>
+      <c r="M21" s="9">
+        <v>1410467.9007963601</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1620720.7641767701</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>9.5116716532926713</v>
+        <v>9.5262245991447099</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ref="P21:P23" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-99.999999011725777</v>
+        <v>-99.999999011739959</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" ref="Q21:Q23" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-98.664901798900843</v>
+        <v>-98.66489734553052</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.223931653013941</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.7872386610714899E-2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1.9074359852257099E-3</v>
-      </c>
-      <c r="E22" s="5">
-        <v>7.4999586925621697E-4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.22524121207121101</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2.1427217857773701E-2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>364433.03143527498</v>
-      </c>
-      <c r="I22" s="4">
-        <v>5746.1935053015204</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3330.3937334622401</v>
-      </c>
-      <c r="K22" s="4">
-        <v>241.13295480858301</v>
+      <c r="B22" s="8">
+        <v>0.22377006529082499</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.7872494760064101E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.9074882913139399E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.225079613469402</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2.1426805383306199E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>364239.74296661298</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5746.21491579145</v>
+      </c>
+      <c r="J22" s="9">
+        <v>3330.3937383361899</v>
+      </c>
+      <c r="K22" s="9">
+        <v>241.13295484071099</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>373750.75162884739</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1182632.6329943</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1172145.9301903101</v>
+        <v>373557.48457558133</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1181756.7080172801</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1171227.0691465801</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="1"/>
-        <v>-8.2431759351014264</v>
+        <v>-8.2337495587333009</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="4"/>
-        <v>-5.34403663423228</v>
+        <v>-5.3942403880924612</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="5"/>
-        <v>-13.295360846270981</v>
+        <v>-13.340195940356299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.21398473381143199</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.7871962482682399E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.8206884672328202E-3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>7.5041015114866104E-4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.216498067381413</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2.3300598512852402E-2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>350625.92500995798</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5742.8848952196904</v>
-      </c>
-      <c r="J23" s="4">
-        <v>6660.7874766719997</v>
-      </c>
-      <c r="K23" s="4">
-        <v>241.13295484068999</v>
+      <c r="B23" s="8">
+        <v>0.21382622146484301</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.7872070735320499E-2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.8207938908756201E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7.5041192499879195E-4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.216339538150528</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2.3300248374790999E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>350432.860354901</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5742.9061049780703</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6660.7874469762601</v>
+      </c>
+      <c r="K23" s="9">
+        <v>241.132954829178</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
-        <v>363270.73033669032</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1190466.4826420399</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1182742.7368554</v>
+        <v>363077.68686168449</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1189592.80581357</v>
+      </c>
+      <c r="N23" s="9">
+        <v>1181828.3080094601</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6353716653523422</v>
+        <v>-7.6252577194417164</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="4"/>
-        <v>-8.9302235252363644</v>
+        <v>-8.9803691469005837</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="5"/>
-        <v>-15.726570577622169</v>
+        <v>-15.771353804862295</v>
       </c>
     </row>
   </sheetData>

--- a/NSAS/stf/NSAS_stf_2020_tab.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91F7F933-B200-480E-B561-D69CBDA40A0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75F3479D-1895-4735-96B3-D176727D59FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,17 +647,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1016,7 +1014,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,47 +1086,47 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>0.19685269339771999</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>1.96762585371462E-3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>7.6751678634720902E-4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="3">
         <v>0.19820017910124099</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="3">
         <v>2.1396350317012699E-2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4">
         <v>391200.47530099499</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="4">
         <v>5614.9800130220401</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <v>3330.3937383551402</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="4">
         <v>241.13295484111001</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
         <v>400386.98200721329</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="4">
         <v>1287790.1214604401</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1142,47 +1140,47 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>0.21616556743895399</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>1.78720721528326E-2</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.216270601969694</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>1.8738438606159199E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>353892.66052822099</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>5751.7350864995497</v>
       </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L23" si="0">SUM(H3:K3)</f>
         <v>359644.39561472053</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="4">
         <v>1189520.59338834</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="4">
         <v>1186669.8706576901</v>
       </c>
       <c r="O3" s="3">
@@ -1199,47 +1197,47 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>0.21598755650012</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>4.9117865334131199E-2</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.21627621455600199</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="3">
         <v>4.9983518555245E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4">
         <v>353625.37680122902</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="4">
         <v>15557.097208830301</v>
       </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>369182.47401005932</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <v>1189527.82205349</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="4">
         <v>1183909.7619481499</v>
       </c>
       <c r="O4" s="3">
@@ -1256,47 +1254,47 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>0.21616552710214301</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="3">
         <v>1.7872072149498E-2</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.216270566513239</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>1.8738446198178101E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>353892.60428278398</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>5751.7350725244996</v>
       </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>359644.3393553085</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="4">
         <v>1189520.62527896</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="4">
         <v>1186669.91398722</v>
       </c>
       <c r="O5" s="3">
@@ -1313,47 +1311,47 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <v>0.21598751620333201</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>4.91178575868704E-2</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.21627617910548499</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="3">
         <v>4.9983518421656499E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="4">
         <v>353625.32060530502</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="4">
         <v>15557.094780916201</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>369182.4153862212</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="4">
         <v>1189527.8539450001</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="4">
         <v>1183909.80601485</v>
       </c>
       <c r="O6" s="3">
@@ -1370,47 +1368,47 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <v>0.186303191082522</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>3.9804881417702602E-2</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.186537114161518</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>4.05515465568516E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>311657.60460310202</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>12668.2811326807</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>324325.88573578274</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="4">
         <v>1216546.3967055499</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="4">
         <v>1230793.52795021</v>
       </c>
       <c r="O7" s="3">
@@ -1427,47 +1425,47 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="3">
         <v>0.186303191082522</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="3">
         <v>3.9804881417702602E-2</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.186537114161518</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="3">
         <v>4.05515465568516E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>311657.60460310202</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="4">
         <v>12668.2811326807</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>324325.88573578274</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="4">
         <v>1216546.3967055499</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="4">
         <v>1230793.52795021</v>
       </c>
       <c r="O8" s="3">
@@ -1484,47 +1482,47 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="3">
         <v>0.186303191082522</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="3">
         <v>3.9804881417702602E-2</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.186537114161518</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="3">
         <v>4.05515465568516E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>311657.60460310202</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>12668.2811326807</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>324325.88573578274</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="4">
         <v>1216546.3967055499</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="4">
         <v>1230793.52795021</v>
       </c>
       <c r="O9" s="3">
@@ -1541,47 +1539,47 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>0.190295954785001</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>4.9237332679288301E-2</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.190585309960839</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="3">
         <v>4.9999999999871703E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>317404.87655120401</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="4">
         <v>15595.0655283489</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>332999.94207955291</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="4">
         <v>1212815.6088417</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="4">
         <v>1223493.78049097</v>
       </c>
       <c r="O10" s="3">
@@ -1598,47 +1596,47 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>0.25989936068174702</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.26000442923978201</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="3">
         <v>1.89142538710214E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>412524.43839270202</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="4">
         <v>5751.1299822270803</v>
       </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>418275.56837492908</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="4">
         <v>1151504.04118896</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="4">
         <v>1124728.6149228001</v>
       </c>
       <c r="O11" s="3">
@@ -1655,47 +1653,47 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="4">
         <v>1410557.7982538801</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="4">
         <v>1622539.1691432099</v>
       </c>
       <c r="O12" s="3">
@@ -1712,47 +1710,47 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>0.23903318712885599</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>0.23913825564546401</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="3">
         <v>1.8830626426338599E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>385008.04999748699</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="4">
         <v>5751.4468516544102</v>
       </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>0</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>390759.49684914137</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="4">
         <v>1169394.0402800899</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="4">
         <v>1153470.03683232</v>
       </c>
       <c r="O13" s="3">
@@ -1769,47 +1767,47 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>-0.15</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <v>0.197175303770113</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>0.19728037220339101</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="3">
         <v>1.8662868412368701E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="4">
         <v>327256.84999999899</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="4">
         <v>5752.0841476602</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>0</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>333008.93414765917</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="4">
         <v>1206661.2292786301</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="4">
         <v>1215690.0082688101</v>
       </c>
       <c r="O14" s="3">
@@ -1826,47 +1824,47 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>0.15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="3">
         <v>0.28355920166486598</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.28366427026978303</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="3">
         <v>1.9009077775091299E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>442759.24937632598</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <v>5750.77134692656</v>
       </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>448510.02072325256</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="4">
         <v>1131749.32786725</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="4">
         <v>1093803.54797184</v>
       </c>
       <c r="O15" s="3">
@@ -1883,47 +1881,47 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <v>0.19809771565728701</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>0.19820278409240499</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
         <v>1.8666565254496399E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="4">
         <v>328567.79674479301</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="4">
         <v>5752.0700798752996</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>334319.86682466831</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="4">
         <v>1205819.5287816599</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="4">
         <v>1214248.59604025</v>
       </c>
       <c r="O16" s="3">
@@ -1940,47 +1938,47 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="3">
         <v>0.29990078283155802</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>0.30000585146880099</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="3">
         <v>1.9074571559411301E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="4">
         <v>463067.10678709397</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="4">
         <v>5750.5240482240897</v>
       </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
         <v>468817.63083531806</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="4">
         <v>1118424.4720590899</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="4">
         <v>1073410.5521287599</v>
       </c>
       <c r="O17" s="3">
@@ -1997,47 +1995,47 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <v>0.33990238929759597</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>0.34000745801378102</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="3">
         <v>1.9234889985979099E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="4">
         <v>510898.46949956898</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="4">
         <v>5749.9200938249096</v>
       </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>516648.38959339389</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="4">
         <v>1086866.83266447</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="4">
         <v>1026551.6227971</v>
       </c>
       <c r="O18" s="3">
@@ -2054,47 +2052,47 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="3">
         <v>0.62357226765973595</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>0.62367733692857596</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="3">
         <v>2.03717820264635E-2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="4">
         <v>788211.97226398205</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="4">
         <v>5745.6925828667099</v>
       </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
         <v>793957.66484684881</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="4">
         <v>899911.87434314797</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="4">
         <v>784359.20016943198</v>
       </c>
       <c r="O19" s="3">
@@ -2111,47 +2109,47 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="3">
         <v>0.820620386925208</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>0.82072545657123597</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="3">
         <v>2.1161511397347298E-2</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="4">
         <v>934361.69810754003</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="4">
         <v>5742.8110880193199</v>
       </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
         <v>940104.50919555931</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="4">
         <v>799917.78034611105</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="4">
         <v>674141.15755477198</v>
       </c>
       <c r="O20" s="3">
@@ -2168,47 +2166,47 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="3">
         <v>1.9685269339772E-9</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="3">
         <v>1.78722622871611E-2</v>
       </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>1.05070004927054E-4</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="3">
         <v>1.78726292810002E-2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="4">
         <v>3.8048802350321401E-3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="4">
         <v>5755.1163995289999</v>
       </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
         <v>5755.1202044092352</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="4">
         <v>1410467.9007963601</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="4">
         <v>1620720.7641767701</v>
       </c>
       <c r="O21" s="3">
@@ -2225,47 +2223,47 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="3">
         <v>0.22377006529082499</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <v>1.7872494760064101E-2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>1.9074882913139399E-3</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>0.225079613469402</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="3">
         <v>2.1426805383306199E-2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="4">
         <v>364239.74296661298</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="4">
         <v>5746.21491579145</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="4">
         <v>3330.3937383361899</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="4">
         <v>241.13295484071099</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>373557.48457558133</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="4">
         <v>1181756.7080172801</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="4">
         <v>1171227.0691465801</v>
       </c>
       <c r="O22" s="3">
@@ -2282,47 +2280,47 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="3">
         <v>0.21382622146484301</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>1.7872070735320499E-2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>3.8207938908756201E-3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>7.5041192499879195E-4</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="3">
         <v>0.216339538150528</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="3">
         <v>2.3300248374790999E-2</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="4">
         <v>350432.860354901</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="4">
         <v>5742.9061049780703</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="4">
         <v>6660.7874469762601</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="4">
         <v>241.132954829178</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>363077.68686168449</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="4">
         <v>1189592.80581357</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="4">
         <v>1181828.3080094601</v>
       </c>
       <c r="O23" s="3">

--- a/NSAS/stf/NSAS_stf_2020_tab.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9951839D-B642-4436-82B6-809C585E5B8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF0BCDE6-7E5F-4753-B0F2-3E6399A3883F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Fbar 2-6 A</t>
   </si>
@@ -128,21 +128,12 @@
   </si>
   <si>
     <t>fmsyAR_no_transfer_Btarget</t>
-  </si>
-  <si>
-    <t>fmsyAR_transfer_sq TAC C&amp;D</t>
-  </si>
-  <si>
-    <t>fmsyAR_no_transfer_sq TAC C&amp;D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,13 +638,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1011,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,47 +1076,47 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.196852694968179</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.7872262287205599E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.9676258538668702E-3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7.6751678634928602E-4</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.19820018067179601</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2.1396350323505599E-2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>391200.47795393801</v>
-      </c>
-      <c r="I2" s="4">
-        <v>5614.9800130128797</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3330.3937383396101</v>
-      </c>
-      <c r="K2" s="4">
-        <v>241.13295484076801</v>
+      <c r="B2" s="1">
+        <v>0.19685269506615299</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.7872262287220299E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.9676258538748E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.6751678634444397E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.198200180769776</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.13963503239161E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>391200.47811944399</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5614.9800130160302</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3330.3937383359998</v>
+      </c>
+      <c r="K2" s="1">
+        <v>241.13295483918401</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.98466013127</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1287790.11966807</v>
-      </c>
-      <c r="N2" s="4" t="s">
+        <v>400386.98482563521</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1287790.1195562501</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1140,565 +1130,565 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.21615352406410601</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.9985881196492701E-2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7.7582447947786997E-9</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.1264074990715999E-8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.216270980909295</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2.08521993958963E-2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>353874.57646738301</v>
-      </c>
-      <c r="I3" s="4">
-        <v>6425.0323834709097</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.3577926196477399E-2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>3.62115865063261E-3</v>
+      <c r="B3" s="1">
+        <v>9.0324901046035605E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.4917664980143E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.00689282110582E-8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.6155961981802392E-9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.0412574728502906E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.52796884200314E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>162435.851843365</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4809.8373862745702</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.7752776324789901E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.1003145697996101E-3</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L23" si="0">SUM(H3:K3)</f>
-        <v>360299.62604993879</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1189521.07854965</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1186482.1263226001</v>
+        <f t="shared" ref="L3:L21" si="0">SUM(H3:K3)</f>
+        <v>167245.71008273045</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1310895.73993165</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1408418.79147754</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>-7.6308273854243387</v>
+        <v>1.7942069926240571</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-8.0864354851371889</v>
+        <v>-57.809746331669736</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-16.415822770288546</v>
+        <v>-61.201472158823911</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.21598755628510299</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4.9117865324435503E-2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7.7751745581485897E-9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.14329544121758E-8</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.216276214340927</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4.9983518544687501E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>353625.37580862298</v>
-      </c>
-      <c r="I4" s="4">
-        <v>15557.097205838299</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.3577926157260001E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3.62115865511062E-3</v>
+      <c r="B4" s="1">
+        <v>1.5136388071055299E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.7428641154740802E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.36065103747042E-9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.0464635378250595E-9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.53563475047057E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.74893151137764E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28895.681113343999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>11931.963850914201</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.4051882802585598E-3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.88394322053206E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>369182.49021354609</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1189527.8208574499</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1183909.7616051701</v>
+        <v>40827.6502533897</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1392878.2243894299</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1579192.7172111501</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O23" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>-7.6303038290080494</v>
+        <f t="shared" ref="O4:O21" si="1">(M4-$M$2)*100/$M$2</f>
+        <v>8.1603440838163426</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-8.1511615840130656</v>
+        <v>-92.494784234783694</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-14.35512983896839</v>
+        <v>-90.528589796041004</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.21615348380028801</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.9985880757912598E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.55164896891367E-8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.12640750271964E-8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.21627094552404899</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2.08522065541921E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>353874.52032246202</v>
-      </c>
-      <c r="I5" s="4">
-        <v>6425.0322294891603</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2.71558524E-2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3.6211586550404101E-3</v>
+      <c r="B5" s="1">
+        <v>0.22013533369930799</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.9986093770454301E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5519904052914001E-8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1264195087788999E-8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.22025279667703801</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0868378011407299E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>359366.73464271898</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6425.0322259069299</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.71558523999571E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.6211586550712899E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>360299.58332896227</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1189521.1103771799</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1186482.16958898</v>
+        <v>365791.79764563695</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1185976.5974918299</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1180567.5404358299</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6308249139400957</v>
+        <v>-7.9060648562440692</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-8.0864500679305316</v>
+        <v>-6.6599305358021201</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-16.415832680922403</v>
+        <v>-15.141720298788353</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.215987515982838</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4.91178575884159E-2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.55503491248749E-8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.1432954393077E-8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.216276178885001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4.9983518422319198E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>353625.31960511499</v>
-      </c>
-      <c r="I6" s="4">
-        <v>15557.094781396099</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2.7155852176882999E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>3.6211586550636702E-3</v>
+      <c r="B6" s="1">
+        <v>0.21996584784072401</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.9118394819760602E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5553774085680498E-8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.14330794421491E-8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.22025451390221401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.9999999998762701E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>359113.66629081301</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15557.094781022801</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.71558524002436E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.6211586549836001E-3</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>369182.44516352192</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1189527.8527538001</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1183909.8056789599</v>
+        <v>374670.79184884689</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1185985.84404826</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1178000.0220783299</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6303013521797443</v>
+        <v>-7.9053468388987191</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-8.1511761820234945</v>
+        <v>-6.7256612094260353</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-14.355140289906808</v>
+        <v>-13.081925140966522</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.18630319088857999</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3.9804881376265602E-2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.186537113967332</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4.0551546514637403E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>311657.60370521701</v>
-      </c>
-      <c r="I7" s="4">
-        <v>12668.281119761699</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="B7" s="1">
+        <v>0.18630319087648101</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.9804881373680497E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.18653711395521699</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.0551546512003801E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>311657.60364920198</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12668.2811189558</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88482497871</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1216546.39543912</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1230793.52753091</v>
+        <v>324325.88476815779</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1216546.3953601101</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1230793.5275047501</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465315476386</v>
+        <v>-5.532246529480231</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655107110236</v>
+        <v>-19.051655121659294</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197965726808</v>
+        <v>-24.76119797890842</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.18630319088857999</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3.9804881376265602E-2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.186537113967332</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4.0551546514637403E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>311657.60370521701</v>
-      </c>
-      <c r="I8" s="4">
-        <v>12668.281119761699</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="B8" s="1">
+        <v>0.18630319087648101</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.9804881373680497E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.18653711395521699</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.0551546512003801E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>311657.60364920198</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12668.2811189558</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88482497871</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1216546.39543912</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1230793.52753091</v>
+        <v>324325.88476815779</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1216546.3953601101</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1230793.5275047501</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465315476386</v>
+        <v>-5.532246529480231</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655107110236</v>
+        <v>-19.051655121659294</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197965726808</v>
+        <v>-24.76119797890842</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.18630319088857999</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3.9804881376265602E-2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.186537113967332</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4.0551546514637403E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>311657.60370521701</v>
-      </c>
-      <c r="I9" s="4">
-        <v>12668.281119761699</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="B9" s="1">
+        <v>0.18630319087648101</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.9804881373680497E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.18653711395521699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.0551546512003801E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>311657.60364920198</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12668.2811189558</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88482497871</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1216546.39543912</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1230793.52753091</v>
+        <v>324325.88476815779</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1216546.3953601101</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1230793.5275047501</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465315476386</v>
+        <v>-5.532246529480231</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655107110236</v>
+        <v>-19.051655121659294</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197965726808</v>
+        <v>-24.76119797890842</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.19029595458757301</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4.9237332680207802E-2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.190585309763417</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="4">
-        <v>317404.87563923199</v>
-      </c>
-      <c r="I10" s="4">
-        <v>15595.065528634501</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="B10" s="1">
+        <v>0.19029595457524801</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.9237332680255902E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.190585309751092</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.9999999999998698E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>317404.87558232603</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15595.0655286494</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>332999.94116786652</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1212815.6075853801</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1223493.78007986</v>
+        <v>332999.94111097546</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1212815.60750701</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1223493.78005423</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8219511811454732</v>
+        <v>-5.8219511790535377</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.558888220703988</v>
+        <v>-17.558888235484449</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-22.748945356383416</v>
+        <v>-22.7489453695813</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.25502630210025801</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.3592511291055301E-2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.72767837941345E-8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3.1167151629941098E-7</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.25516498710581498</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2.4614973571401501E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>406166.59730085701</v>
-      </c>
-      <c r="I11" s="4">
-        <v>7569.6719325515096</v>
-      </c>
-      <c r="J11" s="4">
-        <v>9.9999999999934502E-2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.10000000000008</v>
+      <c r="B11" s="1">
+        <v>0.25986134119765403</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.35928192226811E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.55581315744071E-8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.12862643171921E-8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.46343172483133E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>412470.43741814198</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7569.6739970408798</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.7155852400006002E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.6211586550642999E-3</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>413736.46923340845</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1155614.6591900201</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1130761.47126433</v>
+        <v>420040.14219219395</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1151508.68413125</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1124227.88940613</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.263742395547993</v>
+        <v>-10.582581226198586</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>5.4956253638514045</v>
+        <v>7.1329524108958733</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-4.0192665478728227</v>
+        <v>-2.55690777841843</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="4">
-        <v>1410557.7963749</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1622539.1677262101</v>
+      <c r="M12" s="1">
+        <v>1410557.79625768</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1622539.1676378101</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.533205359462892</v>
+        <v>9.533205359871344</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1710,630 +1700,516 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.23465253488021401</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.13041109262679E-2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.72027146824481E-8</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.1128877409356302E-7</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.234777771494902</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2.2244918851939001E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>379123.958495436</v>
-      </c>
-      <c r="I13" s="4">
-        <v>6843.8416991759004</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.100000000000005</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.100000000000004</v>
+      <c r="B13" s="1">
+        <v>0.239035272824901</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.1702019829539301E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.5538101880692699E-8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.12746931682774E-8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.23916281987149299</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.26600511950651E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>385008</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6970.1636900604299</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.7155852400001099E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>385968.00019461184</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1173190.30627156</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1159355.5429384301</v>
+        <v>391978.1944670715</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1169373.7312169599</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1153096.17080722</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-8.8989511292452104</v>
+        <v>-9.1953173534282424</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5282907120278011</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-10.461140115665067</v>
+        <v>-9.0668640550381383</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>-0.15</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.19366746792931699</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.7583075425465999E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5.70572659584528E-8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.1066023175855601E-7</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.193770836877529</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1.8359622799629001E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>322255.37210745999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5659.9054619683202</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.1</v>
+      <c r="B14" s="1">
+        <v>0.19717527856888201</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.79015496534327E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.54977701029176E-8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1251445503567401E-8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.197280491201476</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.8691814647919001E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>327256.79781064199</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5761.4242939741898</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.7155852399999798E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.6211586550636602E-3</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>327915.47756942827</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1209872.14300725</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1221230.2428687301</v>
+        <v>333018.25288162724</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1206661.1316922901</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1215687.30601802</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.0505182848353769</v>
+        <v>-6.2998610279690306</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>-16.299045186733785</v>
+        <v>-15.000000568652601</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-23.928465610648058</v>
+        <v>-22.744697309986211</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>0.15</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.278200483593814</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.5257830541867001E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5.7356885216868402E-8</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.1195701245817601E-7</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.27834895530556297</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2.6373170574123899E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>435992.54451563099</v>
-      </c>
-      <c r="I15" s="4">
-        <v>8096.57405770075</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.1</v>
+      <c r="B15" s="1">
+        <v>0.28356464315900798</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5744842742522301E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.5580899998670099E-8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1299438143183E-8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.28371594886603402</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.6881338797176899E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>442759.199644437</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8250.5128962170202</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.71558524E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.6211586550636702E-3</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>444089.31857333169</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1136139.63602327</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1099949.3650368201</v>
+        <v>451009.74331766507</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1131707.0679937699</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1093040.7564050399</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-11.776024782973812</v>
+        <v>-12.120224343409596</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>13.242463667152627</v>
+        <v>14.999999907647894</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>3.022144975277731</v>
+        <v>4.6275810249256644</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.194568021533226</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1.79848314834147E-2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5.7061839561371797E-8</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3.1072517143521001E-7</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.194673751502008</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.87649881620057E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>323541.64664809598</v>
-      </c>
-      <c r="I16" s="4">
-        <v>5788.0188113927597</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="4">
-        <v>9.9999999393865197E-2</v>
+      <c r="B16" s="1">
+        <v>0.19809447769817501</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.79850037708752E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.54986568011833E-8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.12519558511356E-8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.198200180769775</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.8778952729130799E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>328563.12993721903</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5788.0205830777604</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.71558524000007E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.6211586550635401E-3</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>329329.86545948812</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1209044.9186366</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1219771.2860069301</v>
+        <v>334351.18129730783</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1205821.95496059</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1214242.75690483</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.1147542467375571</v>
+        <v>-6.3650251194585072</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-15.96495484558867</v>
+        <v>-14.660700573177953</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-23.600348567146227</v>
+        <v>-22.435477658130889</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
-        <v>0.294104421980177</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2.7222063218559699E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5.7415349965436199E-8</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3.12284421527098E-7</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.29426443702229199</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2.8401143373510199E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>455907.96400029497</v>
-      </c>
-      <c r="I17" s="4">
-        <v>8717.0737127858192</v>
-      </c>
-      <c r="J17" s="4">
-        <v>9.9999999946232404E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>9.9999999998178699E-2</v>
+      <c r="B17" s="1">
+        <v>0.29984001056526699</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.7222483853850701E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.55965161812892E-8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.13084861685352E-8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.84242082816401E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>462983.79905472498</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8717.0759682841599</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.7155852400034E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.6211586549795101E-3</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>464625.23771308071</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1123076.6007533199</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1079660.9751424601</v>
+        <v>471700.90580002021</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1118428.79192639</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1072590.1106156199</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-12.790400889021051</v>
+        <v>-13.151314415133033</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>18.415192411662868</v>
+        <v>20.253033457674903</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>7.7861740800814534</v>
+        <v>9.4276242860702641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5">
-        <v>0.33314057385663798</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3.0851594120281701E-2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>5.7553491728865201E-8</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3.1289762668100599E-7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.33332191881148199</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3.2187123950525698E-2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>502981.12986221601</v>
-      </c>
-      <c r="I18" s="4">
-        <v>9859.9642469454902</v>
-      </c>
-      <c r="J18" s="4">
-        <v>9.9999999999989098E-2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.100000000000021</v>
+      <c r="B18" s="1">
+        <v>0.33981867993293302</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.08521484850252E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.5634817208672101E-8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.1330720276782201E-8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.2214099314900498E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>510787.550083387</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9859.9666926026894</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.7155852405980899E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3.6211586556604601E-3</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>512841.29410916148</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1092036.3218862801</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1032949.06457762</v>
+        <v>520647.54755300074</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1086869.5919641601</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1025412.8511105001</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.200753196665755</v>
+        <v>-15.601962194066504</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>30.641734681413375</v>
+        <v>32.669334165364617</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>18.971585087333487</v>
+        <v>20.78252027620174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5">
-        <v>0.623101501081474</v>
-      </c>
-      <c r="C19" s="5">
-        <v>5.65714046265905E-2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5.8565772586670501E-8</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3.17263562974147E-7</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.62343399542862499</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5.9069044009522002E-2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>787753.70418551797</v>
-      </c>
-      <c r="I19" s="4">
-        <v>17831.043721669401</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.100000000000063</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.10000000000045201</v>
+      <c r="B19" s="1">
+        <v>0.62310154120476802</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.6571408241276301E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.59040336980664E-8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.1488615062514E-8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.62343400693529305</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.9068699348326897E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>787753.74432264001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>17831.047821460401</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.71558524E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>805584.94790718728</v>
-      </c>
-      <c r="M19" s="4">
-        <v>900000.00005476596</v>
-      </c>
-      <c r="N19" s="4">
-        <v>781185.19347552001</v>
+        <v>805584.82292111148</v>
+      </c>
+      <c r="M19" s="1">
+        <v>900000.00004493899</v>
+      </c>
+      <c r="N19" s="1">
+        <v>781185.27238199196</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.112835445053545</v>
+        <v>-30.112835439748267</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>104.60710016039094</v>
+        <v>104.60711058540082</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>86.883777254127537</v>
+        <v>86.883748259209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.81989489648957103</v>
-      </c>
-      <c r="C20" s="5">
-        <v>7.4438283104895503E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>5.9247217576754403E-8</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3.2030237831199402E-7</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.82033239034566297</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7.7724633943645705E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>933741.93554127403</v>
-      </c>
-      <c r="I20" s="4">
-        <v>23240.003242307499</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.1</v>
+      <c r="B20" s="1">
+        <v>0.81989494480878999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.4438287454811694E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.60890858773258E-8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.15986553662889E-8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.82033240972305499</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.7724286625360794E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>933741.97717563796</v>
+      </c>
+      <c r="I20" s="1">
+        <v>23240.008464132501</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.71558524E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>956982.13878358144</v>
-      </c>
-      <c r="M20" s="4">
-        <v>800000.00000000105</v>
-      </c>
-      <c r="N20" s="4">
-        <v>669585.99041909503</v>
+        <v>956982.01641678158</v>
+      </c>
+      <c r="M20" s="1">
+        <v>800000.00000000396</v>
+      </c>
+      <c r="N20" s="1">
+        <v>669586.06618922402</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.878075954938808</v>
+        <v>-37.878075949544481</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>142.52533338041653</v>
+        <v>142.52534419431231</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>122.0056833549655</v>
+        <v>122.00565496768019</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5">
-        <v>9.0975045772640796E-3</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8.2596272299041002E-4</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5.63977103177039E-8</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3.0783415567532101E-7</v>
-      </c>
-      <c r="F21" s="5">
-        <v>9.1023958403911604E-3</v>
-      </c>
-      <c r="G21" s="5">
-        <v>8.6278789512061603E-4</v>
-      </c>
-      <c r="H21" s="4">
-        <v>17454.113396938701</v>
-      </c>
-      <c r="I21" s="4">
-        <v>268.31419053502202</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.10000000000001801</v>
+      <c r="B21" s="1">
+        <v>1.9685269506615301E-9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.78722622872203E-10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.53063938654042E-8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.11421240132109E-8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.16651731326822E-8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.6635129955452001E-8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.8049934339489601E-3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5.8084344771418298E-5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.7155852402291101E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3.6211586550630001E-3</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>17722.627587473718</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1400000.00000515</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1598467.6996100701</v>
+        <v>3.464008883607448E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1410557.7855299001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1622539.12450443</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>8.7133670792568481</v>
+        <v>9.5332045268334298</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" ref="P21:P23" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-95.466558254130106</v>
+        <f t="shared" ref="P21" si="4">(H21-$S$2)*100/$S$2</f>
+        <v>-99.999999011710557</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" ref="Q21:Q23" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-95.888612870660438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.223758355672208</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1.9877930506646001E-2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1.9077757870518E-3</v>
-      </c>
-      <c r="E22" s="5">
-        <v>7.5077166168041295E-4</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.225079874710999</v>
-      </c>
-      <c r="G22" s="5">
-        <v>2.34332557443305E-2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>364222.317843817</v>
-      </c>
-      <c r="I22" s="4">
-        <v>6384.3966998619699</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3330.3937383368202</v>
-      </c>
-      <c r="K22" s="4">
-        <v>241.13295484053299</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="0"/>
-        <v>374178.24123685632</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1181757.21410181</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1171050.04604224</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.233710132330426</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="4"/>
-        <v>-5.3987662999685719</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="5"/>
-        <v>-13.196189588306016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.21381508831742099</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.9769077044084302E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.82133930894082E-3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>7.5114481448857395E-4</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.21633990068294001</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2.5198488371728799E-2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>350416.12990727898</v>
-      </c>
-      <c r="I23" s="4">
-        <v>6346.2808560860803</v>
-      </c>
-      <c r="J23" s="4">
-        <v>6660.7874766718896</v>
-      </c>
-      <c r="K23" s="4">
-        <v>241.13295454850899</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>363664.33119458548</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1189593.32330077</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1181661.70287563</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="1"/>
-        <v>-7.6252174067471765</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="4"/>
-        <v>-8.9847146274157978</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="5"/>
-        <v>-15.635261007793432</v>
+        <f t="shared" ref="Q21" si="5">(L21-$U$2)*100/$U$2</f>
+        <v>-99.999991964012409</v>
       </c>
     </row>
   </sheetData>

--- a/NSAS/stf/NSAS_stf_2020_tab.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF0BCDE6-7E5F-4753-B0F2-3E6399A3883F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{456FDEFE-E57A-4E88-9A49-681D88388F2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,41 +1080,41 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>0.19685269506615299</v>
+        <v>0.19685269505907399</v>
       </c>
       <c r="C2" s="1">
-        <v>1.7872262287220299E-2</v>
+        <v>1.7872262287221101E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>1.9676258538748E-3</v>
+        <v>1.9676258538739999E-3</v>
       </c>
       <c r="E2" s="1">
-        <v>7.6751678634444397E-4</v>
+        <v>7.6751678634921295E-4</v>
       </c>
       <c r="F2" s="1">
-        <v>0.198200180769776</v>
+        <v>0.19820018076269599</v>
       </c>
       <c r="G2" s="1">
-        <v>2.13963503239161E-2</v>
+        <v>2.1396350323892501E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>391200.47811944399</v>
+        <v>391200.478107484</v>
       </c>
       <c r="I2" s="1">
-        <v>5614.9800130160302</v>
+        <v>5614.9800130163803</v>
       </c>
       <c r="J2" s="1">
-        <v>3330.3937383359998</v>
+        <v>3330.3937383358798</v>
       </c>
       <c r="K2" s="1">
-        <v>241.13295483918401</v>
+        <v>241.13295484068601</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.98482563521</v>
+        <v>400386.98481367691</v>
       </c>
       <c r="M2" s="1">
-        <v>1287790.1195562501</v>
+        <v>1287790.11956433</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
@@ -1134,56 +1134,56 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>9.0324901046035605E-2</v>
+        <v>0.22013536972488301</v>
       </c>
       <c r="C3" s="1">
-        <v>1.4917664980143E-2</v>
+        <v>1.9986097041937202E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.00689282110582E-8</v>
+        <v>7.7599519784996197E-9</v>
       </c>
       <c r="E3" s="1">
-        <v>9.6155961981802392E-9</v>
+        <v>1.1264195003984301E-8</v>
       </c>
       <c r="F3" s="1">
-        <v>9.0412574728502906E-2</v>
+        <v>0.220252827839615</v>
       </c>
       <c r="G3" s="1">
-        <v>1.52796884200314E-2</v>
+        <v>2.0868373667321201E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>162435.851843365</v>
+        <v>359366.78464725497</v>
       </c>
       <c r="I3" s="1">
-        <v>4809.8373862745702</v>
+        <v>6425.0332813164596</v>
       </c>
       <c r="J3" s="1">
-        <v>1.7752776324789901E-2</v>
+        <v>1.3577926199998799E-2</v>
       </c>
       <c r="K3" s="1">
-        <v>3.1003145697996101E-3</v>
+        <v>3.6211586302206302E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L21" si="0">SUM(H3:K3)</f>
-        <v>167245.71008273045</v>
+        <v>365791.83512765629</v>
       </c>
       <c r="M3" s="1">
-        <v>1310895.73993165</v>
+        <v>1185976.56959081</v>
       </c>
       <c r="N3" s="1">
-        <v>1408418.79147754</v>
+        <v>1180567.5037201301</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>1.7942069926240571</v>
+        <v>-7.9060670234031889</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-57.809746331669736</v>
+        <v>-6.6599175478808306</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-61.201472158823911</v>
+        <v>-15.141711603514972</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1191,56 +1191,56 @@
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>1.5136388071055299E-2</v>
+        <v>0.21996588418153601</v>
       </c>
       <c r="C4" s="1">
-        <v>3.7428641154740802E-2</v>
+        <v>4.9118402939056602E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>1.36065103747042E-9</v>
+        <v>7.77688696762374E-9</v>
       </c>
       <c r="E4" s="1">
-        <v>9.0464635378250595E-9</v>
+        <v>1.14330793987453E-8</v>
       </c>
       <c r="F4" s="1">
-        <v>1.53563475047057E-2</v>
+        <v>0.22025454539786199</v>
       </c>
       <c r="G4" s="1">
-        <v>3.74893151137764E-2</v>
+        <v>5.0000000486817998E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>28895.681113343999</v>
+        <v>359113.71673509199</v>
       </c>
       <c r="I4" s="1">
-        <v>11931.963850914201</v>
+        <v>15557.097323976001</v>
       </c>
       <c r="J4" s="1">
-        <v>2.4051882802585598E-3</v>
+        <v>1.35779261477271E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>2.88394322053206E-3</v>
+        <v>3.6211586345694402E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>40827.6502533897</v>
+        <v>374670.83125815279</v>
       </c>
       <c r="M4" s="1">
-        <v>1392878.2243894299</v>
+        <v>1185985.8158452199</v>
       </c>
       <c r="N4" s="1">
-        <v>1579192.7172111501</v>
+        <v>1177999.9843858001</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O21" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>8.1603440838163426</v>
+        <v>-7.9053490295104387</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-92.494784234783694</v>
+        <v>-6.725648107288162</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-90.528589796041004</v>
+        <v>-13.081915998591203</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1248,56 +1248,56 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>0.22013533369930799</v>
+        <v>0.22013533370029301</v>
       </c>
       <c r="C5" s="1">
-        <v>1.9986093770454301E-2</v>
+        <v>1.9986093771263501E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.5519904052914001E-8</v>
+        <v>1.5519904052937301E-8</v>
       </c>
       <c r="E5" s="1">
-        <v>1.1264195087788999E-8</v>
+        <v>1.12641950877528E-8</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22025279667703801</v>
+        <v>0.220252796678028</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0868378011407299E-2</v>
+        <v>2.0868378012220499E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>359366.73464271898</v>
+        <v>359366.73464725498</v>
       </c>
       <c r="I5" s="1">
-        <v>6425.0322259069299</v>
+        <v>6425.0322261643696</v>
       </c>
       <c r="J5" s="1">
-        <v>2.71558523999571E-2</v>
+        <v>2.7155852399997599E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>3.6211586550712899E-3</v>
+        <v>3.6211586550581299E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>365791.79764563695</v>
+        <v>365791.79765043041</v>
       </c>
       <c r="M5" s="1">
-        <v>1185976.5974918299</v>
+        <v>1185976.5974971701</v>
       </c>
       <c r="N5" s="1">
-        <v>1180567.5404358299</v>
+        <v>1180567.5404372499</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9060648562440692</v>
+        <v>-7.9060648564072098</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-6.6599305358021201</v>
+        <v>-6.6599305346239603</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-15.141720298788353</v>
+        <v>-15.141720297676342</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1305,56 +1305,56 @@
         <v>35</v>
       </c>
       <c r="B6" s="1">
-        <v>0.21996584784072401</v>
+        <v>0.21996584782933601</v>
       </c>
       <c r="C6" s="1">
-        <v>4.9118394819760602E-2</v>
+        <v>4.9118394821606799E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>1.5553774085680498E-8</v>
+        <v>1.5553774085545301E-8</v>
       </c>
       <c r="E6" s="1">
-        <v>1.14330794421491E-8</v>
+        <v>1.1433079442618599E-8</v>
       </c>
       <c r="F6" s="1">
-        <v>0.22025451390221401</v>
+        <v>0.220254513890836</v>
       </c>
       <c r="G6" s="1">
-        <v>4.9999999998762701E-2</v>
+        <v>5.0000000000563302E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>359113.66629081301</v>
+        <v>359113.66627832397</v>
       </c>
       <c r="I6" s="1">
-        <v>15557.094781022801</v>
+        <v>15557.0947815935</v>
       </c>
       <c r="J6" s="1">
-        <v>2.71558524002436E-2</v>
+        <v>2.7155852400023699E-2</v>
       </c>
       <c r="K6" s="1">
-        <v>3.6211586549836001E-3</v>
+        <v>3.6211586551290198E-3</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>374670.79184884689</v>
+        <v>374670.79183692852</v>
       </c>
       <c r="M6" s="1">
-        <v>1185985.84404826</v>
+        <v>1185985.8440645901</v>
       </c>
       <c r="N6" s="1">
-        <v>1178000.0220783299</v>
+        <v>1178000.0220979401</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9053468388987191</v>
+        <v>-7.9053468382084757</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-6.7256612094260353</v>
+        <v>-6.7256612126698734</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-13.081925140966522</v>
+        <v>-13.081925143731407</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1362,10 +1362,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>0.18630319087648101</v>
+        <v>0.186303190877355</v>
       </c>
       <c r="C7" s="1">
-        <v>3.9804881373680497E-2</v>
+        <v>3.9804881373867299E-2</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0.18653711395521699</v>
+        <v>0.18653711395609299</v>
       </c>
       <c r="G7" s="1">
-        <v>4.0551546512003801E-2</v>
+        <v>4.05515465121941E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>311657.60364920198</v>
+        <v>311657.60365324997</v>
       </c>
       <c r="I7" s="1">
-        <v>12668.2811189558</v>
+        <v>12668.281119014</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1393,25 +1393,25 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476815779</v>
+        <v>324325.88477226399</v>
       </c>
       <c r="M7" s="1">
-        <v>1216546.3953601101</v>
+        <v>1216546.39536582</v>
       </c>
       <c r="N7" s="1">
-        <v>1230793.5275047501</v>
+        <v>1230793.5275066399</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-5.532246529480231</v>
+        <v>-5.5322465296295551</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121659294</v>
+        <v>-19.05165512060789</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-24.76119797890842</v>
+        <v>-24.761197977955842</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1419,10 +1419,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>0.18630319087648101</v>
+        <v>0.186303190877355</v>
       </c>
       <c r="C8" s="1">
-        <v>3.9804881373680497E-2</v>
+        <v>3.9804881373867299E-2</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1431,16 +1431,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.18653711395521699</v>
+        <v>0.18653711395609299</v>
       </c>
       <c r="G8" s="1">
-        <v>4.0551546512003801E-2</v>
+        <v>4.05515465121941E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>311657.60364920198</v>
+        <v>311657.60365324997</v>
       </c>
       <c r="I8" s="1">
-        <v>12668.2811189558</v>
+        <v>12668.281119014</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1450,25 +1450,25 @@
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476815779</v>
+        <v>324325.88477226399</v>
       </c>
       <c r="M8" s="1">
-        <v>1216546.3953601101</v>
+        <v>1216546.39536582</v>
       </c>
       <c r="N8" s="1">
-        <v>1230793.5275047501</v>
+        <v>1230793.5275066399</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.532246529480231</v>
+        <v>-5.5322465296295551</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121659294</v>
+        <v>-19.05165512060789</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-24.76119797890842</v>
+        <v>-24.761197977955842</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1476,10 +1476,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>0.18630319087648101</v>
+        <v>0.186303190877355</v>
       </c>
       <c r="C9" s="1">
-        <v>3.9804881373680497E-2</v>
+        <v>3.9804881373867299E-2</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1488,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0.18653711395521699</v>
+        <v>0.18653711395609299</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0551546512003801E-2</v>
+        <v>4.05515465121941E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>311657.60364920198</v>
+        <v>311657.60365324997</v>
       </c>
       <c r="I9" s="1">
-        <v>12668.2811189558</v>
+        <v>12668.281119014</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1507,25 +1507,25 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476815779</v>
+        <v>324325.88477226399</v>
       </c>
       <c r="M9" s="1">
-        <v>1216546.3953601101</v>
+        <v>1216546.39536582</v>
       </c>
       <c r="N9" s="1">
-        <v>1230793.5275047501</v>
+        <v>1230793.5275066399</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.532246529480231</v>
+        <v>-5.5322465296295551</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121659294</v>
+        <v>-19.05165512060789</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-24.76119797890842</v>
+        <v>-24.761197977955842</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1533,10 +1533,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>0.19029595457524801</v>
+        <v>0.19029595457614701</v>
       </c>
       <c r="C10" s="1">
-        <v>4.9237332680255902E-2</v>
+        <v>4.9237332680253598E-2</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.190585309751092</v>
+        <v>0.19058530975199101</v>
       </c>
       <c r="G10" s="1">
-        <v>4.9999999999998698E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H10" s="1">
-        <v>317404.87558232603</v>
+        <v>317404.87558644998</v>
       </c>
       <c r="I10" s="1">
-        <v>15595.0655286494</v>
+        <v>15595.0655286486</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1564,25 +1564,25 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>332999.94111097546</v>
+        <v>332999.9411150986</v>
       </c>
       <c r="M10" s="1">
-        <v>1212815.60750701</v>
+        <v>1212815.6075126701</v>
       </c>
       <c r="N10" s="1">
-        <v>1223493.78005423</v>
+        <v>1223493.7800560701</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8219511790535377</v>
+        <v>-5.8219511792049135</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.558888235484449</v>
+        <v>-17.558888234413313</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-22.7489453695813</v>
+        <v>-22.748945368624792</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1590,56 +1590,56 @@
         <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25986134119765403</v>
+        <v>0.25986134119764898</v>
       </c>
       <c r="C11" s="1">
-        <v>2.35928192226811E-2</v>
+        <v>2.3592819223530299E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>1.55581315744071E-8</v>
+        <v>1.55581315761266E-8</v>
       </c>
       <c r="E11" s="1">
-        <v>1.12862643171921E-8</v>
+        <v>1.12862643181929E-8</v>
       </c>
       <c r="F11" s="1">
         <v>0.26</v>
       </c>
       <c r="G11" s="1">
-        <v>2.46343172483133E-2</v>
+        <v>2.4634317249162398E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>412470.43741814198</v>
+        <v>412470.43742174603</v>
       </c>
       <c r="I11" s="1">
-        <v>7569.6739970408798</v>
+        <v>7569.6739973100202</v>
       </c>
       <c r="J11" s="1">
-        <v>2.7155852400006002E-2</v>
+        <v>2.7155852403008399E-2</v>
       </c>
       <c r="K11" s="1">
-        <v>3.6211586550642999E-3</v>
+        <v>3.6211586553838199E-3</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>420040.14219219395</v>
+        <v>420040.14219606714</v>
       </c>
       <c r="M11" s="1">
-        <v>1151508.68413125</v>
+        <v>1151508.6841371399</v>
       </c>
       <c r="N11" s="1">
-        <v>1124227.88940613</v>
+        <v>1124227.8894086401</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.582581226198586</v>
+        <v>-10.582581226302246</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>7.1329524108958733</v>
+        <v>7.1329524118319698</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-2.55690777841843</v>
+        <v>-2.5569077775199061</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1681,14 +1681,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1410557.79625768</v>
+        <v>1410557.79626615</v>
       </c>
       <c r="N12" s="1">
-        <v>1622539.1676378101</v>
+        <v>1622539.1676441899</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.533205359871344</v>
+        <v>9.5332053598418121</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1704,48 +1704,48 @@
         <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>0.239035272824901</v>
+        <v>0.239035272822369</v>
       </c>
       <c r="C13" s="1">
-        <v>2.1702019829539301E-2</v>
+        <v>2.1702019830090801E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>1.5538101880692699E-8</v>
+        <v>1.55381018806889E-8</v>
       </c>
       <c r="E13" s="1">
-        <v>1.12746931682774E-8</v>
+        <v>1.12746931682805E-8</v>
       </c>
       <c r="F13" s="1">
-        <v>0.23916281987149299</v>
+        <v>0.23916281986896401</v>
       </c>
       <c r="G13" s="1">
-        <v>2.26600511950651E-2</v>
+        <v>2.2660051195606601E-2</v>
       </c>
       <c r="H13" s="1">
         <v>385008</v>
       </c>
       <c r="I13" s="1">
-        <v>6970.1636900604299</v>
+        <v>6970.1636902356504</v>
       </c>
       <c r="J13" s="1">
-        <v>2.7155852400001099E-2</v>
+        <v>2.71558524E-2</v>
       </c>
       <c r="K13" s="1">
         <v>3.6211586550636801E-3</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>391978.1944670715</v>
+        <v>391978.19446724671</v>
       </c>
       <c r="M13" s="1">
-        <v>1169373.7312169599</v>
+        <v>1169373.73122522</v>
       </c>
       <c r="N13" s="1">
-        <v>1153096.17080722</v>
+        <v>1153096.17081352</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.1953173534282424</v>
+        <v>-9.195317353356554</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-9.0668640550381383</v>
+        <v>-9.0668640549974917</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1761,48 +1761,48 @@
         <v>-0.15</v>
       </c>
       <c r="B14" s="1">
-        <v>0.19717527856888201</v>
+        <v>0.19717527856683301</v>
       </c>
       <c r="C14" s="1">
-        <v>1.79015496534327E-2</v>
+        <v>1.7901549653891301E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>1.54977701029176E-8</v>
+        <v>1.5497770102914302E-8</v>
       </c>
       <c r="E14" s="1">
-        <v>1.1251445503567401E-8</v>
+        <v>1.12514455035695E-8</v>
       </c>
       <c r="F14" s="1">
-        <v>0.197280491201476</v>
+        <v>0.19728049119943</v>
       </c>
       <c r="G14" s="1">
-        <v>1.8691814647919001E-2</v>
+        <v>1.8691814648369401E-2</v>
       </c>
       <c r="H14" s="1">
         <v>327256.79781064199</v>
       </c>
       <c r="I14" s="1">
-        <v>5761.4242939741898</v>
+        <v>5761.4242941204502</v>
       </c>
       <c r="J14" s="1">
-        <v>2.7155852399999798E-2</v>
+        <v>2.71558523999989E-2</v>
       </c>
       <c r="K14" s="1">
-        <v>3.6211586550636602E-3</v>
+        <v>3.6211586550634902E-3</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>333018.25288162724</v>
+        <v>333018.25288177351</v>
       </c>
       <c r="M14" s="1">
-        <v>1206661.1316922901</v>
+        <v>1206661.13170058</v>
       </c>
       <c r="N14" s="1">
-        <v>1215687.30601802</v>
+        <v>1215687.30602437</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2998610279690306</v>
+        <v>-6.2998610279131952</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-22.744697309986211</v>
+        <v>-22.744697309952276</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1818,56 +1818,56 @@
         <v>0.15</v>
       </c>
       <c r="B15" s="1">
-        <v>0.28356464315900798</v>
+        <v>0.28356464315593499</v>
       </c>
       <c r="C15" s="1">
-        <v>2.5744842742522301E-2</v>
+        <v>2.5744842743170501E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>1.5580899998670099E-8</v>
+        <v>1.5580899998666602E-8</v>
       </c>
       <c r="E15" s="1">
-        <v>1.1299438143183E-8</v>
+        <v>1.1299438143186699E-8</v>
       </c>
       <c r="F15" s="1">
-        <v>0.28371594886603402</v>
+        <v>0.28371594886296497</v>
       </c>
       <c r="G15" s="1">
-        <v>2.6881338797176899E-2</v>
+        <v>2.6881338797812699E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>442759.199644437</v>
+        <v>442759.19964442699</v>
       </c>
       <c r="I15" s="1">
-        <v>8250.5128962170202</v>
+        <v>8250.5128964220494</v>
       </c>
       <c r="J15" s="1">
         <v>2.71558524E-2</v>
       </c>
       <c r="K15" s="1">
-        <v>3.6211586550636702E-3</v>
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>451009.74331766507</v>
+        <v>451009.74331786012</v>
       </c>
       <c r="M15" s="1">
-        <v>1131707.0679937699</v>
+        <v>1131707.068002</v>
       </c>
       <c r="N15" s="1">
-        <v>1093040.7564050399</v>
+        <v>1093040.75641128</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-12.120224343409596</v>
+        <v>-12.120224343321889</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>14.999999907647894</v>
+        <v>14.999999907645293</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>4.6275810249256644</v>
+        <v>4.6275810249709135</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1875,56 +1875,56 @@
         <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>0.19809447769817501</v>
+        <v>0.19809447769108901</v>
       </c>
       <c r="C16" s="1">
-        <v>1.79850037708752E-2</v>
+        <v>1.7985003770879401E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>1.54986568011833E-8</v>
+        <v>1.54986568011753E-8</v>
       </c>
       <c r="E16" s="1">
-        <v>1.12519558511356E-8</v>
+        <v>1.12519558511358E-8</v>
       </c>
       <c r="F16" s="1">
-        <v>0.198200180769775</v>
+        <v>0.198200180762688</v>
       </c>
       <c r="G16" s="1">
-        <v>1.8778952729130799E-2</v>
+        <v>1.87789527291067E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>328563.12993721903</v>
+        <v>328563.12993007997</v>
       </c>
       <c r="I16" s="1">
-        <v>5788.0205830777604</v>
+        <v>5788.0205830792202</v>
       </c>
       <c r="J16" s="1">
-        <v>2.71558524000007E-2</v>
+        <v>2.71558524E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>3.6211586550635401E-3</v>
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>334351.18129730783</v>
+        <v>334351.18129017024</v>
       </c>
       <c r="M16" s="1">
-        <v>1205821.95496059</v>
+        <v>1205821.95497347</v>
       </c>
       <c r="N16" s="1">
-        <v>1214242.75690483</v>
+        <v>1214242.7569190699</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.3650251194585072</v>
+        <v>-6.3650251190458365</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-14.660700573177953</v>
+        <v>-14.660700575032214</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-22.435477658130889</v>
+        <v>-22.435477659786706</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1932,56 +1932,56 @@
         <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>0.29984001056526699</v>
+        <v>0.29984001055860998</v>
       </c>
       <c r="C17" s="1">
-        <v>2.7222483853850701E-2</v>
+        <v>2.7222483854226601E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>1.55965161812892E-8</v>
+        <v>1.5596516179976801E-8</v>
       </c>
       <c r="E17" s="1">
-        <v>1.13084861685352E-8</v>
+        <v>1.1308486168837E-8</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3</v>
+        <v>0.29999999999334498</v>
       </c>
       <c r="G17" s="1">
-        <v>2.84242082816401E-2</v>
+        <v>2.8424208281989299E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>462983.79905472498</v>
+        <v>462983.79905055399</v>
       </c>
       <c r="I17" s="1">
-        <v>8717.0759682841599</v>
+        <v>8717.0759684029908</v>
       </c>
       <c r="J17" s="1">
-        <v>2.7155852400034E-2</v>
+        <v>2.7155852397760801E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>3.6211586549795101E-3</v>
+        <v>3.6211586550755201E-3</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>471700.90580002021</v>
+        <v>471700.90579596802</v>
       </c>
       <c r="M17" s="1">
-        <v>1118428.79192639</v>
+        <v>1118428.7919373501</v>
       </c>
       <c r="N17" s="1">
-        <v>1072590.1106156199</v>
+        <v>1072590.11062601</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.151314415133033</v>
+        <v>-13.151314414826869</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>20.253033457674903</v>
+        <v>20.253033456591549</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>9.4276242860702641</v>
+        <v>9.4276242851302179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1989,56 +1989,56 @@
         <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33981867993293302</v>
+        <v>0.33981867989789699</v>
       </c>
       <c r="C18" s="1">
-        <v>3.08521484850252E-2</v>
+        <v>3.08521484829553E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>1.5634817208672101E-8</v>
+        <v>1.5634817205209099E-8</v>
       </c>
       <c r="E18" s="1">
-        <v>1.1330720276782201E-8</v>
+        <v>1.13307202749163E-8</v>
       </c>
       <c r="F18" s="1">
-        <v>0.34</v>
+        <v>0.339999999964952</v>
       </c>
       <c r="G18" s="1">
-        <v>3.2214099314900498E-2</v>
+        <v>3.2214099312690099E-2</v>
       </c>
       <c r="H18" s="1">
-        <v>510787.550083387</v>
+        <v>510787.550046994</v>
       </c>
       <c r="I18" s="1">
-        <v>9859.9666926026894</v>
+        <v>9859.9666919525207</v>
       </c>
       <c r="J18" s="1">
-        <v>2.7155852405980899E-2</v>
+        <v>2.7155852400024699E-2</v>
       </c>
       <c r="K18" s="1">
-        <v>3.6211586556604601E-3</v>
+        <v>3.6211586550683001E-3</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>520647.54755300074</v>
+        <v>520647.54751595762</v>
       </c>
       <c r="M18" s="1">
-        <v>1086869.5919641601</v>
+        <v>1086869.59199646</v>
       </c>
       <c r="N18" s="1">
-        <v>1025412.8511105001</v>
+        <v>1025412.8511519399</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.601962194066504</v>
+        <v>-15.601962192087873</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>32.669334165364617</v>
+        <v>32.669334155912082</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>20.78252027620174</v>
+        <v>20.782520267608284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2046,28 +2046,28 @@
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>0.62310154120476802</v>
+        <v>0.62310154118627004</v>
       </c>
       <c r="C19" s="1">
-        <v>5.6571408241276301E-2</v>
+        <v>5.6571408241634001E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>1.59040336980664E-8</v>
+        <v>1.5904033698049899E-8</v>
       </c>
       <c r="E19" s="1">
-        <v>1.1488615062514E-8</v>
+        <v>1.14886150625156E-8</v>
       </c>
       <c r="F19" s="1">
-        <v>0.62343400693529305</v>
+        <v>0.62343400691679696</v>
       </c>
       <c r="G19" s="1">
-        <v>5.9068699348326897E-2</v>
+        <v>5.9068699348610497E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>787753.74432264001</v>
+        <v>787753.74431371002</v>
       </c>
       <c r="I19" s="1">
-        <v>17831.047821460401</v>
+        <v>17831.047821570799</v>
       </c>
       <c r="J19" s="1">
         <v>2.71558524E-2</v>
@@ -2077,25 +2077,25 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>805584.82292111148</v>
+        <v>805584.82291229186</v>
       </c>
       <c r="M19" s="1">
-        <v>900000.00004493899</v>
+        <v>900000.00005897495</v>
       </c>
       <c r="N19" s="1">
-        <v>781185.27238199196</v>
+        <v>781185.27239485597</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.112835439748267</v>
+        <v>-30.11283543909683</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>104.60711058540082</v>
+        <v>104.60711058308139</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>86.883748259209</v>
+        <v>86.883748257162978</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2103,28 +2103,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>0.81989494480878999</v>
+        <v>0.81989494481498904</v>
       </c>
       <c r="C20" s="1">
-        <v>7.4438287454811694E-2</v>
+        <v>7.4438287458055197E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>1.60890858773258E-8</v>
+        <v>1.60890858773335E-8</v>
       </c>
       <c r="E20" s="1">
-        <v>1.15986553662889E-8</v>
+        <v>1.1598655366308E-8</v>
       </c>
       <c r="F20" s="1">
-        <v>0.82033240972305499</v>
+        <v>0.82033240972927401</v>
       </c>
       <c r="G20" s="1">
-        <v>7.7724286625360794E-2</v>
+        <v>7.7724286628629097E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>933741.97717563796</v>
+        <v>933741.97718690196</v>
       </c>
       <c r="I20" s="1">
-        <v>23240.008464132501</v>
+        <v>23240.008465106701</v>
       </c>
       <c r="J20" s="1">
         <v>2.71558524E-2</v>
@@ -2134,25 +2134,25 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>956982.01641678158</v>
+        <v>956982.01642901974</v>
       </c>
       <c r="M20" s="1">
-        <v>800000.00000000396</v>
+        <v>800000</v>
       </c>
       <c r="N20" s="1">
-        <v>669586.06618922402</v>
+        <v>669586.06618647894</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.878075949544481</v>
+        <v>-37.878075949934562</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>142.52534419431231</v>
+        <v>142.52534419723796</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>122.00565496768019</v>
+        <v>122.00565497051926</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2160,48 +2160,48 @@
         <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9685269506615301E-9</v>
+        <v>1.96852695059074E-9</v>
       </c>
       <c r="C21" s="1">
-        <v>1.78722622872203E-10</v>
+        <v>1.7872262287221101E-10</v>
       </c>
       <c r="D21" s="1">
-        <v>1.53063938654042E-8</v>
+        <v>1.5306393865401E-8</v>
       </c>
       <c r="E21" s="1">
-        <v>1.11421240132109E-8</v>
+        <v>1.11421240132131E-8</v>
       </c>
       <c r="F21" s="1">
-        <v>1.16651731326822E-8</v>
+        <v>1.16651731326094E-8</v>
       </c>
       <c r="G21" s="1">
-        <v>2.6635129955452001E-8</v>
+        <v>2.66351299554508E-8</v>
       </c>
       <c r="H21" s="1">
-        <v>3.8049934339489601E-3</v>
+        <v>3.8049934338479402E-3</v>
       </c>
       <c r="I21" s="1">
-        <v>5.8084344771418298E-5</v>
+        <v>5.80843447714209E-5</v>
       </c>
       <c r="J21" s="1">
-        <v>2.7155852402291101E-2</v>
+        <v>2.7155852402288499E-2</v>
       </c>
       <c r="K21" s="1">
-        <v>3.6211586550630001E-3</v>
+        <v>3.62115865506373E-3</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>3.464008883607448E-2</v>
+        <v>3.464008883597159E-2</v>
       </c>
       <c r="M21" s="1">
-        <v>1410557.7855299001</v>
+        <v>1410557.78553837</v>
       </c>
       <c r="N21" s="1">
-        <v>1622539.12450443</v>
+        <v>1622539.12451082</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332045268334298</v>
+        <v>9.5332045268038996</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ref="P21" si="4">(H21-$S$2)*100/$S$2</f>

--- a/NSAS/stf/NSAS_stf_2020_tab.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{456FDEFE-E57A-4E88-9A49-681D88388F2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6488E75-1752-436B-9998-C38FAFE10F1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -646,6 +649,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1004,7 +1008,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,44 +1083,44 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.19685269505907399</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.7872262287221101E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.9676258538739999E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.6751678634921295E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.19820018076269599</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.1396350323892501E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>391200.478107484</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5614.9800130163803</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3330.3937383358798</v>
-      </c>
-      <c r="K2" s="1">
-        <v>241.13295484068601</v>
+      <c r="B2" s="7">
+        <v>0.1968526950658</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.78722622872204E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.9676258538746699E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>7.6751678634919397E-4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.198200180769422</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.13963503239194E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>391200.47811884701</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5614.9800130160602</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3330.3937383358402</v>
+      </c>
+      <c r="K2" s="4">
+        <v>241.13295484067601</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.98481367691</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1287790.11956433</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>400386.98482503957</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1287790.1195566501</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1133,562 +1137,562 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.22013536972488301</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.9986097041937202E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.7599519784996197E-9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.1264195003984301E-8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.220252827839615</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.0868373667321201E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>359366.78464725497</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6425.0332813164596</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.3577926199998799E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.6211586302206302E-3</v>
+      <c r="B3" s="7">
+        <v>0.220135369722052</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.9986093724866299E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.7599519765678304E-9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.1264195062023999E-8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.22025282781729</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2.0868370350239002E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>359366.78464261303</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6425.0322259128998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.3577926200011E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.6211586550516299E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L21" si="0">SUM(H3:K3)</f>
-        <v>365791.83512765629</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1185976.56959081</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1180567.5037201301</v>
+        <v>365791.83406761079</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1185976.5696035</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1180567.50404397</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>-7.9060670234031889</v>
+        <v>-7.9060670218685667</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-6.6599175478808306</v>
+        <v>-6.6599175490865052</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-15.141711603514972</v>
+        <v>-15.141711849429829</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.21996588418153601</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.9118402939056602E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.77688696762374E-9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.14330793987453E-8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.22025454539786199</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5.0000000486817998E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>359113.71673509199</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15557.097323976001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.35779261477271E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.6211586345694402E-3</v>
+      <c r="B4" s="7">
+        <v>0.21996588418649701</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.9118402938473499E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.7768869663489902E-9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.1433079360162E-8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.22025454540282</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.0000000486254803E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>359113.71673889802</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15557.097323795701</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.35779261454969E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.62115862235011E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>374670.83125815279</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1185985.8158452199</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1177999.9843858001</v>
+        <v>374670.83126177848</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1185985.8158349099</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1177999.9843757099</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O21" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>-7.9053490295104387</v>
+        <v>-7.9053490297618136</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-6.725648107288162</v>
+        <v>-6.7256481062996043</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-13.081915998591203</v>
+        <v>-13.081915997750096</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.22013533370029301</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.9986093771263501E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.5519904052937301E-8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.12641950877528E-8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.220252796678028</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.0868378012220499E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>359366.73464725498</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6425.0322261643696</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2.7155852399997599E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.6211586550581299E-3</v>
+      <c r="B5" s="7">
+        <v>0.220135333699118</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.9986093770473098E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.55199040529509E-8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.12641950877677E-8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.220252796676848</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.0868378011425302E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>359366.734642617</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6425.0322259128998</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.7155852400021899E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.6211586550643901E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>365791.79765043041</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1185976.5974971701</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1180567.5404372499</v>
+        <v>365791.79764554097</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1185976.59749231</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1180567.5404362599</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9060648564072098</v>
+        <v>-7.9060648562353943</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-6.6599305346239603</v>
+        <v>-6.6599305358286074</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-15.141720297676342</v>
+        <v>-15.14172029881062</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.21996584782933601</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.9118394821606799E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.5553774085545301E-8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.1433079442618599E-8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.220254513890836</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.0000000000563302E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>359113.66627832397</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15557.0947815935</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.7155852400023699E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.6211586551290198E-3</v>
+      <c r="B6" s="7">
+        <v>0.21996584783429701</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.9118394821023703E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.5553774082995801E-8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.14330794303689E-8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.22025451389579401</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="4">
+        <v>359113.66628213</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15557.0947814132</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.7155852395563399E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3.6211586512502102E-3</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>374670.79183692852</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1185985.8440645901</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1178000.0220979401</v>
+        <v>374670.79184055427</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1185985.8440542801</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1178000.0220878499</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9053468382084757</v>
+        <v>-7.9053468384598506</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-6.7256612126698734</v>
+        <v>-6.7256612116813166</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-13.081925143731407</v>
+        <v>-13.081925142890286</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.186303190877355</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.9804881373867299E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.18653711395609299</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.05515465121941E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>311657.60365324997</v>
-      </c>
-      <c r="I7" s="1">
-        <v>12668.281119014</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="B7" s="7">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.9804881373689899E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.0551546512013301E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>311657.60364940402</v>
+      </c>
+      <c r="I7" s="4">
+        <v>12668.281118958599</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88477226399</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1216546.39536582</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1230793.5275066399</v>
+        <v>324325.88476836262</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1216546.3953604</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1230793.5275048399</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465296295551</v>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.05165512060789</v>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197977955842</v>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.186303190877355</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.9804881373867299E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.18653711395609299</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4.05515465121941E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>311657.60365324997</v>
-      </c>
-      <c r="I8" s="1">
-        <v>12668.281119014</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="B8" s="7">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.9804881373689899E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.0551546512013301E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>311657.60364940402</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12668.281118958599</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88477226399</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1216546.39536582</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1230793.5275066399</v>
+        <v>324325.88476836262</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1216546.3953604</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1230793.5275048399</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465296295551</v>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.05165512060789</v>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197977955842</v>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.186303190877355</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.9804881373867299E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.18653711395609299</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4.05515465121941E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>311657.60365324997</v>
-      </c>
-      <c r="I9" s="1">
-        <v>12668.281119014</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="B9" s="7">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.9804881373689899E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4.0551546512013301E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>311657.60364940402</v>
+      </c>
+      <c r="I9" s="4">
+        <v>12668.281118958599</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88477226399</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1216546.39536582</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1230793.5275066399</v>
+        <v>324325.88476836262</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1216546.3953604</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1230793.5275048399</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465296295551</v>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.05165512060789</v>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197977955842</v>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.19029595457614701</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.9237332680253598E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.19058530975199101</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="B10" s="7">
+        <v>0.19029595457530099</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4.9237332680256998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.19058530975114499</v>
+      </c>
+      <c r="G10" s="7">
         <v>0.05</v>
       </c>
-      <c r="H10" s="1">
-        <v>317404.87558644998</v>
-      </c>
-      <c r="I10" s="1">
-        <v>15595.0655286486</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="H10" s="4">
+        <v>317404.87558254303</v>
+      </c>
+      <c r="I10" s="4">
+        <v>15595.0655286497</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>332999.9411150986</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1212815.6075126701</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1223493.7800560701</v>
+        <v>332999.94111119275</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1212815.6075072901</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1223493.7800543101</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8219511792049135</v>
+        <v>-5.8219511790610401</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.558888234413313</v>
+        <v>-17.558888235428089</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-22.748945368624792</v>
+        <v>-22.748945369530894</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.25986134119764898</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.3592819223530299E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.55581315761266E-8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.12862643181929E-8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.4634317249162398E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>412470.43742174603</v>
-      </c>
-      <c r="I11" s="1">
-        <v>7569.6739973100202</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2.7155852403008399E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3.6211586553838199E-3</v>
+      <c r="B11" s="7">
+        <v>0.25986134119543502</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.3592819222522099E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5558131574403599E-8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.12862643171903E-8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.25999999999778001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.4634317248145399E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>412470.437415439</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7569.6739969905102</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.71558524000035E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.6211586550640501E-3</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>420040.14219606714</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1151508.6841371399</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1124227.8894086401</v>
+        <v>420040.14218944055</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1151508.68413342</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1124227.8894092599</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.582581226302246</v>
+        <v>-10.582581226057854</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>7.1329524118319698</v>
+        <v>7.1329524101938127</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-2.5569077775199061</v>
+        <v>-2.5569077790571773</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>1410557.79626615</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1622539.1676441899</v>
+      <c r="M12" s="4">
+        <v>1410557.7962581001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1622539.16763812</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332053598418121</v>
+        <v>9.5332053598699353</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1703,49 +1707,49 @@
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.239035272822369</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.1702019830090801E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.55381018806889E-8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.12746931682805E-8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.23916281986896401</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.2660051195606601E-2</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="B13" s="7">
+        <v>0.23903527282477499</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.1702019829566901E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.5538101880691901E-8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.12746931682776E-8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.23916281987136701</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2.26600511950923E-2</v>
+      </c>
+      <c r="H13" s="4">
         <v>385008</v>
       </c>
-      <c r="I13" s="1">
-        <v>6970.1636902356504</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="4">
+        <v>6970.1636900692001</v>
+      </c>
+      <c r="J13" s="4">
         <v>2.71558524E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>3.6211586550636801E-3</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>391978.19446724671</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1169373.73122522</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1153096.17081352</v>
+        <v>391978.19446708029</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1169373.7312173699</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1153096.17080754</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.195317353356554</v>
+        <v>-9.195317353424608</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
@@ -1753,463 +1757,463 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-9.0668640549974917</v>
+        <v>-9.066864055036099</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>-0.15</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.19717527856683301</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.7901549653891301E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.5497770102914302E-8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.12514455035695E-8</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.19728049119943</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.8691814648369401E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>327256.79781064199</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5761.4242941204502</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.71558523999989E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3.6211586550634902E-3</v>
+      <c r="B14" s="7">
+        <v>0.19717528010827301</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.79015497932263E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.54977701044032E-8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.1251445504421299E-8</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.19728049274168899</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.8691814793882201E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>327256.79999999102</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5761.4243385275404</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.7155852400000801E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3.6211586550633501E-3</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>333018.25288177351</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1206661.13170058</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1215687.30602437</v>
+        <v>333018.25511552964</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1206661.13028645</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1215687.30359622</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2998610279131952</v>
+        <v>-6.2998611371649949</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>-15.000000568652601</v>
+        <v>-15.000000000002332</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-22.744697309952276</v>
+        <v>-22.744696791753938</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.15</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.28356464315593499</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.5744842743170501E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.5580899998666602E-8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.1299438143186699E-8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.28371594886296497</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2.6881338797812699E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>442759.19964442699</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8250.5128964220494</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.71558524E-2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.6211586550636801E-3</v>
+      <c r="B15" s="7">
+        <v>0.28356464315881402</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.5744842742551101E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.558089999867E-8</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.12994381431832E-8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.28371594886584101</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.6881338797205001E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>442759.19964438601</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8250.5128962261206</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.71558524000001E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3.6211586550636702E-3</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>451009.74331786012</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1131707.068002</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1093040.75641128</v>
+        <v>451009.74331762322</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1131707.0679942099</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1093040.7564054099</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-12.120224343321889</v>
+        <v>-12.120224343402722</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>14.999999907645293</v>
+        <v>14.999999907634651</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>4.6275810249709135</v>
+        <v>4.6275810249159557</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.19809447769108901</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.7985003770879401E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.54986568011753E-8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.12519558511358E-8</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.198200180762688</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.87789527291067E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>328563.12993007997</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5788.0205830792202</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="B16" s="7">
+        <v>0.19809447769781799</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.7985003770875099E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.5498656801182599E-8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.1251955851136001E-8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.19820018076941701</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.87789527291293E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>328563.12993685802</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5788.0205830777304</v>
+      </c>
+      <c r="J16" s="4">
         <v>2.71558524E-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>3.6211586550636801E-3</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>334351.18129017024</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1205821.95497347</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1214242.7569190699</v>
+        <v>334351.18129694683</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1205821.9549612401</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1214242.7569055499</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.3650251190458365</v>
+        <v>-6.3650251194371119</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-14.660700575032214</v>
+        <v>-14.660700573271718</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-22.435477659786706</v>
+        <v>-22.435477658214634</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.29984001055860998</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.7222483854226601E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.5596516179976801E-8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.1308486168837E-8</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.29999999999334498</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.8424208281989299E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>462983.79905055399</v>
-      </c>
-      <c r="I17" s="1">
-        <v>8717.0759684029908</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2.7155852397760801E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3.6211586550755201E-3</v>
+      <c r="B17" s="7">
+        <v>0.29984001056526699</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.72224838538998E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.5596516146086699E-8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.13084861527423E-8</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2.8424208281689001E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>462983.79905492399</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8717.0759682996195</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.7155852338741199E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3.6211586499222898E-3</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>471700.90579596802</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1118428.7919373501</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1072590.11062601</v>
+        <v>471700.90580023464</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1118428.7919266699</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1072590.11061572</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.151314414826869</v>
+        <v>-13.151314415138275</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>20.253033456591549</v>
+        <v>20.253033457726591</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>9.4276242851302179</v>
+        <v>9.427624286120011</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.33981867989789699</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.08521484829553E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.5634817205209099E-8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.13307202749163E-8</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.339999999964952</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.2214099312690099E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>510787.550046994</v>
-      </c>
-      <c r="I18" s="1">
-        <v>9859.9666919525207</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.7155852400024699E-2</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3.6211586550683001E-3</v>
+      <c r="B18" s="7">
+        <v>0.33981867993293202</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.0852148485080801E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.5634817209249301E-8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.1330720277193799E-8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3.2214099314956099E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>510787.55008360499</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9859.9666926201498</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2.7155852406983299E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3.6211586557918902E-3</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>520647.54751595762</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1086869.59199646</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1025412.8511519399</v>
+        <v>520647.54755323619</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1086869.5919644199</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1025412.85111059</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.601962192087873</v>
+        <v>-15.601962194072543</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>32.669334155912082</v>
+        <v>32.669334165421233</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>20.782520267608284</v>
+        <v>20.78252027625636</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.62310154118627004</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.6571408241634001E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.5904033698049899E-8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.14886150625156E-8</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.62343400691679696</v>
-      </c>
-      <c r="G19" s="1">
-        <v>5.9068699348610497E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>787753.74431371002</v>
-      </c>
-      <c r="I19" s="1">
-        <v>17831.047821570799</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="B19" s="7">
+        <v>0.62310154117927496</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.6571408239063703E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.5904033698042401E-8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.1488615062502301E-8</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.62343400690978601</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5.9068699346012103E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>787753.744301992</v>
+      </c>
+      <c r="I19" s="4">
+        <v>17831.047820784199</v>
+      </c>
+      <c r="J19" s="4">
         <v>2.71558524E-2</v>
       </c>
-      <c r="K19" s="1">
-        <v>3.6211586550636801E-3</v>
+      <c r="K19" s="4">
+        <v>3.6211586550642799E-3</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>805584.82291229186</v>
-      </c>
-      <c r="M19" s="1">
-        <v>900000.00005897495</v>
-      </c>
-      <c r="N19" s="1">
-        <v>781185.27239485597</v>
+        <v>805584.82289978722</v>
+      </c>
+      <c r="M19" s="4">
+        <v>900000.00005945202</v>
+      </c>
+      <c r="N19" s="4">
+        <v>781185.27239881596</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.11283543909683</v>
+        <v>-30.112835438643003</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>104.60711058308139</v>
+        <v>104.60711058003781</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>86.883748257162978</v>
+        <v>86.883748254262073</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.81989494481498904</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7.4438287458055197E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.60890858773335E-8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.1598655366308E-8</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.82033240972927401</v>
-      </c>
-      <c r="G20" s="1">
-        <v>7.7724286628629097E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>933741.97718690196</v>
-      </c>
-      <c r="I20" s="1">
-        <v>23240.008465106701</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="B20" s="7">
+        <v>0.81989494480910596</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7.4438287454974494E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.60890858773263E-8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.15986553662899E-8</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.82033240972337196</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.7724286625524899E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>933741.97717620397</v>
+      </c>
+      <c r="I20" s="4">
+        <v>23240.008464181301</v>
+      </c>
+      <c r="J20" s="4">
         <v>2.71558524E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>3.6211586550636801E-3</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>956982.01642901974</v>
-      </c>
-      <c r="M20" s="1">
-        <v>800000</v>
-      </c>
-      <c r="N20" s="1">
-        <v>669586.06618647894</v>
+        <v>956982.01641739637</v>
+      </c>
+      <c r="M20" s="4">
+        <v>800000.00000000105</v>
+      </c>
+      <c r="N20" s="4">
+        <v>669586.06618908199</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.878075949934562</v>
+        <v>-37.878075949564007</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>142.52534419723796</v>
+        <v>142.52534419445934</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>122.00565497051926</v>
+        <v>122.00565496782281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.96852695059074E-9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.7872262287221101E-10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.5306393865401E-8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.11421240132131E-8</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.16651731326094E-8</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2.66351299554508E-8</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3.8049934338479402E-3</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5.80843447714209E-5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2.7155852402288499E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3.62115865506373E-3</v>
+      <c r="B21" s="7">
+        <v>9.0975252243630997E-3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8.2596459713225195E-4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.5315277965740099E-8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.114716132784E-8</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9.1023889076732502E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8.6245208258511397E-4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>17454.152825048801</v>
+      </c>
+      <c r="I21" s="4">
+        <v>268.31484361838397</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.7155852399999798E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3.6211586535946699E-3</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>3.464008883597159E-2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1410557.78553837</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1622539.12451082</v>
+        <v>17722.498445678237</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1400000</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1598467.7739653799</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332045268038996</v>
+        <v>8.7133670882628493</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ref="P21" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-99.999999011710557</v>
+        <v>-95.466548013275357</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" ref="Q21" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-99.999991964012409</v>
+        <v>-95.888642829644411</v>
       </c>
     </row>
   </sheetData>
